--- a/SYS.xlsx
+++ b/SYS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C#\SYS\SYS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C#\SYS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3452BA1-B53C-4016-A139-A01627DBD645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF9A46-EA4D-45C4-8190-3845BB5FA54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2316" windowWidth="17280" windowHeight="8964" xr2:uid="{84959E6D-256A-439B-992A-C041BC0ABD9D}"/>
   </bookViews>
@@ -569,20 +569,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4352FF8-AE49-41E1-8CAE-FD8089FC750E}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -753,12 +753,6 @@
       <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
       <c r="F9" t="s">
         <v>47</v>
       </c>
@@ -771,10 +765,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -788,10 +782,10 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -799,10 +793,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -812,11 +806,14 @@
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -826,11 +823,14 @@
       <c r="B14" t="s">
         <v>49</v>
       </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -841,56 +841,58 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
